--- a/dist/Mk_lot/Manual.xlsx
+++ b/dist/Mk_lot/Manual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijung\PycharmProjects\MK_Lot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijung\PycharmProjects\MK_Lot\dist\Mk_lot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DE9052-9DFE-41F8-88C2-2E92B2565735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FB4718-1592-411B-9C27-CA387CE51ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FB5B786-486D-4A6D-B7F4-3A434A0623E9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Lot폴더 추가 파이썬 프로그램 사용법</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,26 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>210919 ver1.0 (이준영 제작)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_set 엑셀 파일을 실행합니다. (아래 설정 설명 참고)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성하고자 하는 소자 구조는 반드시 Device_set에 등록해야 합니다. (인터락 참고)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_set의 L0~L7의 값이 생성되는 수명 매크로의 상단 수명값을 결정합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인터락 걸리는 경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,15 +76,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복사용 수명 매크로.xlsm 파일이 Source 폴더에 없는 경우</t>
+    <t>211009 ver1.1 (이준영 제작)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Device_set 엑셀 파일(설정 클릭했을 때 실행)에 입력한 소자구조가 없는 경우</t>
+    <t>Source 폴더에 해당 소자 구조의 수명 파일이 없는 경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>새로 소자구조를 등록하면 기존 경로 그대로 저장</t>
+    <t>Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 소자의 IVL, 수명 파일을 Lot 폴더 Source에 복사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수명 파일에서 LT기준 값을 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,13 +177,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:colOff>318377</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>341709</xdr:colOff>
+      <xdr:colOff>229071</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>47290</xdr:rowOff>
     </xdr:to>
@@ -213,15 +201,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="205740" y="685800"/>
-          <a:ext cx="9523809" cy="2676190"/>
+          <a:off x="318377" y="676003"/>
+          <a:ext cx="9359494" cy="2637001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -652,357 +645,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>206830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>217715</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="타원 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBDE693-2DF6-4DD6-8C42-2E406B0A94E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2634344" y="2819401"/>
-          <a:ext cx="283028" cy="283028"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>174172</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>263520</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>131399</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{727E90B0-9EFD-4F9D-9312-6D6FA6BD5063}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="816428" y="4093029"/>
-          <a:ext cx="5521321" cy="3222941"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>261258</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85785</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114197</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{355B587F-5A05-457E-BE6D-BD9C27BAF90D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3635829" y="4440071"/>
-          <a:ext cx="6117771" cy="681555"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>272142</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>195942</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="직사각형 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7F41BD-8AA6-4270-AD2B-4EDF319147DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1621971" y="6291942"/>
-          <a:ext cx="4604658" cy="195943"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>87085</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>54427</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>337457</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A45C90E-4EAF-4CDF-AFD2-E0A5BA696EF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4136571" y="5061856"/>
-          <a:ext cx="1600200" cy="1186544"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>185057</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>206829</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA1D373-3FA4-4D3D-A3B2-1D0D485C225F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7304314" y="5192486"/>
-          <a:ext cx="1001486" cy="337457"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>수명 매크로</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>435429</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -1081,25 +723,68 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>468086</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD65900F-6492-4D09-AC18-C692173427F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect r="-92" b="61911"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="4136572"/>
+          <a:ext cx="7728857" cy="1730828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>359229</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>250372</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:rowOff>65316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>10887</xdr:colOff>
+      <xdr:colOff>576944</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>206829</xdr:rowOff>
+      <xdr:rowOff>185059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18">
+        <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D10845-A0CF-4118-A2C1-2F39A927333D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC5604E-D77F-4356-B5DC-5FFBB0299F14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +792,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2383972" y="4005943"/>
+          <a:off x="2950029" y="3984173"/>
           <a:ext cx="1001486" cy="337457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1145,9 +830,198 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>Device_set</a:t>
+            <a:t>Setting</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>96171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FE7265-58C3-4BC9-A156-6B8416BCB90C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1349828" y="6262077"/>
+          <a:ext cx="6313715" cy="2760380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>424542</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="직사각형 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320763E9-E8BE-45CC-8C40-D1E2FB616E9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3679371" y="8545286"/>
+          <a:ext cx="2819400" cy="424543"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>108859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B793801-3C71-44E7-B3A8-360EF5A932AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4158343" y="8164288"/>
+          <a:ext cx="2046514" cy="337456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>소자에 맞는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>LT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>값 변경 필요</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1453,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F09BCD-75F9-42DE-BD3A-998292CA07B9}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1467,7 +1341,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -1518,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="Q10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -1526,20 +1400,12 @@
         <v>6</v>
       </c>
       <c r="Q11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="P12" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="16:17" x14ac:dyDescent="0.4">
       <c r="P20" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="2"/>
     </row>
@@ -1548,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="16:17" x14ac:dyDescent="0.4">
@@ -1556,52 +1422,36 @@
         <v>2</v>
       </c>
       <c r="Q22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="23" spans="16:17" x14ac:dyDescent="0.4">
-      <c r="P23" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>17</v>
+    <row r="27" spans="16:17" x14ac:dyDescent="0.4">
+      <c r="P27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="16:17" x14ac:dyDescent="0.4">
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="16:17" x14ac:dyDescent="0.4">
-      <c r="P29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="16:17" x14ac:dyDescent="0.4">
-      <c r="P30" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="16:17" x14ac:dyDescent="0.4">
-      <c r="P31" s="1">
+      <c r="P29" s="1">
         <v>2</v>
       </c>
-      <c r="Q31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="16:17" x14ac:dyDescent="0.4">
-      <c r="P32" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>16</v>
+      <c r="Q29" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P27:Q27"/>
     <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P29:Q29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
